--- a/old_image/media.xlsx
+++ b/old_image/media.xlsx
@@ -435,7 +435,7 @@
     <t>Media.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | not-done | suspended | aborted | completed | entered-in-error | unknown</t>
+    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The current state of the {{title}}.</t>
